--- a/data/dataframe_nocovid_full.xlsx
+++ b/data/dataframe_nocovid_full.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\GDOforecast\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{41C957AF-5587-4CB7-9376-93567E01A84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48603CDF-2C8C-43E6-8EB2-1E423B66C54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="1395" windowWidth="23715" windowHeight="13155"/>
+    <workbookView xWindow="30345" yWindow="1920" windowWidth="23715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataframe_nocovid_full" sheetId="1" r:id="rId1"/>
+    <sheet name="temp" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>cust0</t>
   </si>
@@ -177,11 +189,17 @@
   <si>
     <t>cust51</t>
   </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1150,6 +1168,444 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>temp!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>diff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>temp!$C$2:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10536051565782634</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5310179804324768E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.5310179804324768E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18232155679395445</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.7011376989629685E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7011376989629685E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15415067982725805</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.4107972153721668E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.16705408466316607</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.7011376989629685E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0042707673536384E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.4107972153721668E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-7.4107972153721668E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.4107972153721668E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.19415601444095776</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.26826398659467943</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.4107972153721668E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-7.4107972153721668E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.4107972153721668E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.13353139262452274</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.062462181643502E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.1251631429540061</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.1251631429540061</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.7158413839948352E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.4067221270275745E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.1466034741918758</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.2578291093020999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.1251631429540061</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.18232155679395445</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.11778303565638337</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.062462181643502E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.16251892949777469</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-5.1293294387550592E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.10008345855698275</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6520015634893053E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6058-4F53-B0A5-AF367029A0A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="821328383"/>
+        <c:axId val="821328799"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="821328383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="821328799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="821328799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="821328383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1190,7 +1646,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1747,6 +2759,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F96F7D7D-2217-4DC0-B3A0-E0EE0E7AE0D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2043,11 +3096,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2:AE49"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9942,4 +10995,651 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02698284-306F-4492-8ECD-155B302A4005}">
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <f>LN(A2)</f>
+        <v>2.1972245773362196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B49" si="0">LN(A3)</f>
+        <v>2.1972245773362196</v>
+      </c>
+      <c r="C3">
+        <f>B3-B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>2.1972245773362196</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C49" si="1">B4-B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>0.10536051565782634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>9.5310179804324768E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>-9.5310179804324768E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>2.4849066497880004</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.18232155679395445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>-8.7011376989629685E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>2.4849066497880004</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>8.7011376989629685E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>2.6390573296152584</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.15415067982725805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>2.5649493574615367</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>-7.4107972153721668E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>-0.16705408466316607</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>2.4849066497880004</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>8.7011376989629685E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>2.5649493574615367</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>8.0042707673536384E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>2.6390573296152584</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>7.4107972153721668E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>2.5649493574615367</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>-7.4107972153721668E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>2.5649493574615367</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>2.5649493574615367</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>2.6390573296152584</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>7.4107972153721668E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>2.6390573296152584</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>2.8332133440562162</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>0.19415601444095776</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>2.5649493574615367</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>-0.26826398659467943</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>2.5649493574615367</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>2.6390573296152584</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>7.4107972153721668E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>2.5649493574615367</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>-7.4107972153721668E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>2.6390573296152584</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>7.4107972153721668E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>2.7725887222397811</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>0.13353139262452274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>17</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>2.8332133440562162</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>6.062462181643502E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>2.7080502011022101</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>-0.1251631429540061</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>17</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>2.8332133440562162</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>0.1251631429540061</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>2.8903717578961645</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>5.7158413839948352E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>19</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>2.9444389791664403</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>5.4067221270275745E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>3.0910424533583161</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>0.1466034741918758</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>17</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>2.8332133440562162</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>-0.2578291093020999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>2.8332133440562162</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>2.7080502011022101</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>-0.1251631429540061</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>18</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>2.8903717578961645</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>0.18232155679395445</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>16</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>2.7725887222397811</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>-0.11778303565638337</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>17</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>2.8332133440562162</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>6.062462181643502E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>20</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>2.9957322735539909</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>0.16251892949777469</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>19</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>2.9444389791664403</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>-5.1293294387550592E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>21</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>3.044522437723423</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>0.10008345855698275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>21</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>3.044522437723423</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>22</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>3.0910424533583161</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>4.6520015634893053E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>22</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>3.0910424533583161</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>